--- a/バッチ設計書_BATCH0001.xlsx
+++ b/バッチ設計書_BATCH0001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="19440" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="19440" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>社内学習</t>
     <phoneticPr fontId="1"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>処理概要</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -130,14 +126,6 @@
   </si>
   <si>
     <t>処理終了ログ出力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ユーザのポイントを基づいて「ユーザレベル情報」テーブルのデータを更新</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>「ユーザ情報」と「ポイント情報」テーブルから全データ取得</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -256,12 +244,40 @@
     <t>コミット単位：3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>ユーザのポイントを基づいて「ユーザレベル情報」テーブルのデータを更新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「ユーザ情報」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="3"/>
+      </rPr>
+      <t>、「ユーザレベル情報」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="3"/>
+      </rPr>
+      <t>と「ポイント情報」テーブルから全データ取得</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +339,12 @@
     </font>
     <font>
       <strike/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ 明朝"/>
@@ -598,6 +620,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,29 +647,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="55" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,6 +657,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="55" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="55" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,6 +671,15 @@
     <xf numFmtId="55" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,8 +689,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1652,7 +1674,7 @@
       <xdr:rowOff>299356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>299356</xdr:rowOff>
@@ -1665,14 +1687,14 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3891644" y="4789713"/>
-          <a:ext cx="6885214" cy="1796143"/>
+          <a:ext cx="8980714" cy="1796143"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrowCallout">
           <a:avLst>
             <a:gd name="adj1" fmla="val 32576"/>
             <a:gd name="adj2" fmla="val 35606"/>
             <a:gd name="adj3" fmla="val 71970"/>
-            <a:gd name="adj4" fmla="val 60432"/>
+            <a:gd name="adj4" fmla="val 69936"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -2580,6 +2602,83 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="순서도: 자기 디스크 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11076214" y="5089071"/>
+          <a:ext cx="1496786" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>レベル情報</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2872,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3:AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1"/>
@@ -2884,16 +2983,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2946,152 +3045,152 @@
       <c r="BD1" s="47"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="25" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="31" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="25" t="s">
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="37" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="39" t="s">
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="35">
+        <v>44214</v>
+      </c>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="35">
+        <v>44210</v>
+      </c>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="37"/>
+    </row>
+    <row r="3" spans="1:56" ht="24" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="39">
-        <v>44210</v>
-      </c>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="41"/>
-    </row>
-    <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="30"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="33"/>
       <c r="AE3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="44"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
       <c r="AR3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="42" t="s">
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="44"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="41"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="7"/>
@@ -3174,13 +3273,13 @@
       <c r="T5" s="4"/>
       <c r="U5" s="1"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
@@ -5009,10 +5108,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="AR3:AW3"/>
-    <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:BD1"/>
     <mergeCell ref="A2:G2"/>
@@ -5028,6 +5123,10 @@
     <mergeCell ref="P3:V3"/>
     <mergeCell ref="W2:AD2"/>
     <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="AR3:AW3"/>
+    <mergeCell ref="AX3:BD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5041,8 +5140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1"/>
@@ -5053,16 +5152,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="45" t="str">
         <f>表紙!I1</f>
         <v>社内学習</v>
@@ -5116,160 +5215,160 @@
       <c r="BD1" s="47"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="25" t="str">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="28" t="str">
         <f>表紙!H2</f>
         <v>バッチ練習</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="31" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="25" t="str">
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="28" t="str">
         <f>表紙!W2</f>
         <v>-</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="37" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="39" t="str">
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="35">
         <f>表紙!AK2</f>
-        <v>-</v>
-      </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="37" t="s">
+        <v>44214</v>
+      </c>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="39">
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="35">
         <f>表紙!AX2</f>
         <v>44210</v>
       </c>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="41"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="37"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="28" t="str">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="31" t="str">
         <f>表紙!H3</f>
         <v>BATCH0001</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="34" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="28" t="str">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="31" t="str">
         <f>表紙!W3</f>
         <v>-</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="34" t="s">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="42" t="str">
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="39" t="str">
         <f>表紙!AK3</f>
-        <v>-</v>
-      </c>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="34" t="s">
+        <v>趙　大俊</v>
+      </c>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="42" t="str">
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="39" t="str">
         <f>表紙!AX3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="44"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="41"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="12"/>
@@ -5389,7 +5488,7 @@
     </row>
     <row r="6" spans="1:56" ht="24" customHeight="1">
       <c r="A6" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -5508,7 +5607,7 @@
     <row r="8" spans="1:56" ht="24" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -5627,10 +5726,10 @@
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -5746,10 +5845,10 @@
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -5866,10 +5965,10 @@
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5987,10 +6086,10 @@
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -6107,10 +6206,10 @@
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -6227,10 +6326,10 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -6347,10 +6446,10 @@
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -6467,10 +6566,10 @@
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -6587,10 +6686,10 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -6703,10 +6802,10 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -6822,7 +6921,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -7261,7 +7360,7 @@
   <dimension ref="A1:BD39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="AK3" sqref="AK3:AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1"/>
@@ -7272,16 +7371,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="45" t="str">
         <f>表紙!I1</f>
         <v>社内学習</v>
@@ -7335,160 +7434,159 @@
       <c r="BD1" s="47"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="25" t="str">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="28" t="str">
         <f>表紙!H2</f>
         <v>バッチ練習</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="31" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="25" t="str">
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="28" t="str">
         <f>表紙!W2</f>
         <v>-</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="37" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="39" t="str">
-        <f>表紙!AK2</f>
-        <v>-</v>
-      </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="37" t="s">
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="35">
+        <v>44214</v>
+      </c>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="39">
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="35">
         <f>表紙!AX2</f>
         <v>44210</v>
       </c>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="41"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="37"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="28" t="str">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="31" t="str">
         <f>表紙!H3</f>
         <v>BATCH0001</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="34" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="28" t="str">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="31" t="str">
         <f>表紙!W3</f>
         <v>-</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="34" t="s">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="42" t="str">
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="39" t="str">
         <f>表紙!AK3</f>
-        <v>-</v>
-      </c>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="34" t="s">
+        <v>趙　大俊</v>
+      </c>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="42" t="str">
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="39" t="str">
         <f>表紙!AX3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="44"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="41"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="12"/>
@@ -7608,7 +7706,7 @@
     </row>
     <row r="6" spans="1:56" ht="24" customHeight="1">
       <c r="A6" s="50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -8836,7 +8934,7 @@
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -9063,7 +9161,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -9303,7 +9401,7 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
@@ -9409,7 +9507,7 @@
     </row>
     <row r="39" spans="1:56" ht="24" customHeight="1">
       <c r="G39" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -9459,16 +9557,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="45" t="str">
         <f>表紙!I1</f>
         <v>社内学習</v>
@@ -9522,160 +9620,160 @@
       <c r="BD1" s="47"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="25" t="str">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="28" t="str">
         <f>表紙!H2</f>
         <v>バッチ練習</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="31" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="25" t="str">
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="28" t="str">
         <f>表紙!W2</f>
         <v>-</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="37" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="39" t="str">
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="35">
         <f>表紙!AK2</f>
-        <v>-</v>
-      </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="37" t="s">
+        <v>44214</v>
+      </c>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="39">
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="35">
         <f>表紙!AX2</f>
         <v>44210</v>
       </c>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="41"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="37"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="28" t="str">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="31" t="str">
         <f>表紙!H3</f>
         <v>BATCH0001</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="34" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="28" t="str">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="31" t="str">
         <f>表紙!W3</f>
         <v>-</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="34" t="s">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="42" t="str">
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="39" t="str">
         <f>表紙!AK3</f>
-        <v>-</v>
-      </c>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="34" t="s">
+        <v>趙　大俊</v>
+      </c>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="42" t="str">
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="39" t="str">
         <f>表紙!AX3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="44"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="41"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="12"/>
@@ -9795,7 +9893,7 @@
     </row>
     <row r="6" spans="1:56" ht="24" customHeight="1">
       <c r="A6" s="50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -9917,7 +10015,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -10035,13 +10133,13 @@
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
       <c r="G10" s="54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" s="54"/>
       <c r="I10" s="54"/>
@@ -10097,7 +10195,7 @@
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -10161,7 +10259,7 @@
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
@@ -10225,7 +10323,7 @@
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
@@ -10289,16 +10387,16 @@
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
       <c r="G14" s="51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="51"/>
       <c r="J14" s="51"/>
@@ -10413,7 +10511,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -10473,7 +10571,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
@@ -10533,21 +10631,21 @@
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
       <c r="H18" s="50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
       <c r="L18" s="50"/>
       <c r="M18" s="50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N18" s="50"/>
       <c r="O18" s="50"/>
@@ -10597,21 +10695,21 @@
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="51"/>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
       <c r="K19" s="51"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N19" s="51"/>
       <c r="O19" s="51"/>
@@ -10719,7 +10817,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="52"/>
@@ -10779,21 +10877,21 @@
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
       <c r="H22" s="50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I22" s="50"/>
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
       <c r="L22" s="50"/>
       <c r="M22" s="50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
@@ -10843,21 +10941,21 @@
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
       <c r="H23" s="51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
       <c r="L23" s="51"/>
       <c r="M23" s="51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
@@ -10965,7 +11063,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="52"/>
@@ -11025,21 +11123,21 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
       <c r="H26" s="50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
       <c r="L26" s="50"/>
       <c r="M26" s="50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N26" s="50"/>
       <c r="O26" s="50"/>
@@ -11089,21 +11187,21 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
       <c r="H27" s="51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I27" s="51"/>
       <c r="J27" s="51"/>
       <c r="K27" s="51"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N27" s="51"/>
       <c r="O27" s="51"/>

--- a/バッチ設計書_BATCH0001.xlsx
+++ b/バッチ設計書_BATCH0001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="19440" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="関連仕様" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">関連仕様!$A$1:$BD$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">関連仕様!$A$1:$BD$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">処理概要!$A$1:$BD$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">処理図!$A$1:$BD$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$BD$36</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>社内学習</t>
     <phoneticPr fontId="1"/>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>参考資料</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>レベル体系</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -272,12 +268,178 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>DAO定義</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>パラメータ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>メソッド名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡されたパラメータでレベル情報テーブルを更新する。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡されたパラメータより過去に更新されたレベル情報に該当するユーザポイント
+情報を取得する。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻り値</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserPointDto(詳細項目はソースのコメント参照)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelInfoDto(詳細項目はソースのコメント参照)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>レベル体系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>※更新仕様は「関連仕様」シート「レベル体系」参照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3件毎にコミット</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>コミット回数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>更新デ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>タ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelInfoDao</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateLevelInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserPointInfoDao</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPointInfoList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>※UserPointInfoDao.getUserPointInfoList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="3"/>
+      </rPr>
+      <t>LevelInfoDao.updateLevelInfo</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,8 +512,22 @@
       <name val="ＭＳ 明朝"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +543,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +730,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,32 +802,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -660,6 +818,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="55" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -692,22 +856,58 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="57" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2971,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3:AQ3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1"/>
@@ -2983,214 +3183,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="47"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="41"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="28" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="48" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="28" t="s">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="42" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="35">
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="27">
         <v>44214</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="42" t="s">
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="35">
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="27">
         <v>44210</v>
       </c>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="37"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="29"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="31" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="25" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="31" t="s">
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="38" t="s">
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="39" t="s">
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="38" t="s">
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="39" t="s">
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40"/>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="41"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="35"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="7"/>
@@ -3273,13 +3473,13 @@
       <c r="T5" s="4"/>
       <c r="U5" s="1"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
@@ -5108,6 +5308,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="AR3:AW3"/>
+    <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:BD1"/>
     <mergeCell ref="A2:G2"/>
@@ -5120,13 +5327,6 @@
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="H3:O3"/>
     <mergeCell ref="P2:V2"/>
-    <mergeCell ref="P3:V3"/>
-    <mergeCell ref="W2:AD2"/>
-    <mergeCell ref="W3:AD3"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="AR3:AW3"/>
-    <mergeCell ref="AX3:BD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5140,8 +5340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1"/>
@@ -5152,223 +5352,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45" t="str">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39" t="str">
         <f>表紙!I1</f>
         <v>社内学習</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="47"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="41"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="28" t="str">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="44" t="str">
         <f>表紙!H2</f>
         <v>バッチ練習</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="48" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="28" t="str">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="44" t="str">
         <f>表紙!W2</f>
         <v>-</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="42" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="35">
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="27">
         <f>表紙!AK2</f>
         <v>44214</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="42" t="s">
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="35">
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="27">
         <f>表紙!AX2</f>
         <v>44210</v>
       </c>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="37"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="29"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="31" t="str">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="47" t="str">
         <f>表紙!H3</f>
         <v>BATCH0001</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="25" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="31" t="str">
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="47" t="str">
         <f>表紙!W3</f>
         <v>-</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="25" t="s">
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="39" t="str">
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="33" t="str">
         <f>表紙!AK3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="25" t="s">
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="39" t="str">
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="33" t="str">
         <f>表紙!AX3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40"/>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="41"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="35"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="12"/>
@@ -5451,13 +5651,13 @@
       <c r="T5" s="15"/>
       <c r="U5" s="14"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
@@ -5487,14 +5687,14 @@
       <c r="BD5" s="16"/>
     </row>
     <row r="6" spans="1:56" ht="24" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -6209,7 +6409,7 @@
         <v>22</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -6329,7 +6529,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -6449,7 +6649,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -6921,7 +7121,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -7357,10 +7557,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD39"/>
+  <dimension ref="A1:BD54"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3:AQ3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1"/>
@@ -7371,222 +7571,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45" t="str">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39" t="str">
         <f>表紙!I1</f>
         <v>社内学習</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="47"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="41"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="28" t="str">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="44" t="str">
         <f>表紙!H2</f>
         <v>バッチ練習</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="48" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="28" t="str">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="44" t="str">
         <f>表紙!W2</f>
         <v>-</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="42" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="35">
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="27">
         <v>44214</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="42" t="s">
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="35">
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="27">
         <f>表紙!AX2</f>
         <v>44210</v>
       </c>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="37"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="29"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="31" t="str">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="47" t="str">
         <f>表紙!H3</f>
         <v>BATCH0001</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="25" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="31" t="str">
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="47" t="str">
         <f>表紙!W3</f>
         <v>-</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="25" t="s">
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="39" t="str">
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="33" t="str">
         <f>表紙!AK3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="25" t="s">
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="39" t="str">
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="33" t="str">
         <f>表紙!AX3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40"/>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="41"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="35"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="12"/>
@@ -7669,13 +7869,13 @@
       <c r="T5" s="15"/>
       <c r="U5" s="14"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
@@ -7705,14 +7905,14 @@
       <c r="BD5" s="16"/>
     </row>
     <row r="6" spans="1:56" ht="24" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -8714,7 +8914,9 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
+      <c r="W23" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
@@ -9510,8 +9712,126 @@
         <v>28</v>
       </c>
     </row>
+    <row r="41" spans="1:56" ht="24" customHeight="1">
+      <c r="N41" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56" ht="24" customHeight="1">
+      <c r="N46" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="14:27" ht="24" customHeight="1">
+      <c r="N49" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="14:27" ht="24" customHeight="1">
+      <c r="N50" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P50" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="60"/>
+    </row>
+    <row r="51" spans="14:27" ht="24" customHeight="1">
+      <c r="P51" s="55">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55">
+        <v>4</v>
+      </c>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="55"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="55"/>
+    </row>
+    <row r="52" spans="14:27" ht="24" customHeight="1">
+      <c r="P52" s="55">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55">
+        <v>5</v>
+      </c>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="55"/>
+      <c r="Z52" s="55"/>
+      <c r="AA52" s="55"/>
+    </row>
+    <row r="53" spans="14:27" ht="24" customHeight="1">
+      <c r="P53" s="55">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55">
+        <v>6</v>
+      </c>
+      <c r="W53" s="55"/>
+      <c r="X53" s="55"/>
+      <c r="Y53" s="55"/>
+      <c r="Z53" s="55"/>
+      <c r="AA53" s="55"/>
+    </row>
+    <row r="54" spans="14:27" ht="24" customHeight="1">
+      <c r="P54" s="55">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="55">
+        <v>7</v>
+      </c>
+      <c r="W54" s="55"/>
+      <c r="X54" s="55"/>
+      <c r="Y54" s="55"/>
+      <c r="Z54" s="55"/>
+      <c r="AA54" s="55"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="30">
+    <mergeCell ref="P53:U53"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="P54:U54"/>
+    <mergeCell ref="V54:AA54"/>
+    <mergeCell ref="P50:U50"/>
+    <mergeCell ref="V50:AA50"/>
+    <mergeCell ref="P51:U51"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="P52:U52"/>
+    <mergeCell ref="V52:AA52"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:BD1"/>
     <mergeCell ref="A2:G2"/>
@@ -9543,7 +9863,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD32"/>
+  <dimension ref="A1:BD43"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -9557,223 +9877,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45" t="str">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39" t="str">
         <f>表紙!I1</f>
         <v>社内学習</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="47"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="41"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="28" t="str">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="44" t="str">
         <f>表紙!H2</f>
         <v>バッチ練習</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="48" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="28" t="str">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="44" t="str">
         <f>表紙!W2</f>
         <v>-</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="42" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="35">
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="27">
         <f>表紙!AK2</f>
         <v>44214</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="42" t="s">
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="35">
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="27">
         <f>表紙!AX2</f>
         <v>44210</v>
       </c>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="37"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="29"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="31" t="str">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="47" t="str">
         <f>表紙!H3</f>
         <v>BATCH0001</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="25" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="31" t="str">
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="47" t="str">
         <f>表紙!W3</f>
         <v>-</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="25" t="s">
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="39" t="str">
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="33" t="str">
         <f>表紙!AK3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="25" t="s">
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="39" t="str">
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="33" t="str">
         <f>表紙!AX3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40"/>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="41"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="35"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="12"/>
@@ -9856,13 +10176,13 @@
       <c r="T5" s="15"/>
       <c r="U5" s="14"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
@@ -9892,14 +10212,14 @@
       <c r="BD5" s="16"/>
     </row>
     <row r="6" spans="1:56" ht="24" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -10015,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -10132,19 +10452,19 @@
     <row r="10" spans="1:56" ht="24" customHeight="1" thickBot="1">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -10194,21 +10514,21 @@
     <row r="11" spans="1:56" ht="24" customHeight="1" thickTop="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53">
+      <c r="C11" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56">
         <v>0</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="56">
         <v>0</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -10258,21 +10578,21 @@
     <row r="12" spans="1:56" ht="24" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51">
+      <c r="C12" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55">
         <v>1</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="55">
         <v>1</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -10322,21 +10642,21 @@
     <row r="13" spans="1:56" ht="24" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51">
+      <c r="C13" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55">
         <v>2</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="55">
         <v>2</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -10386,21 +10706,21 @@
     <row r="14" spans="1:56" ht="24" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="H14" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -10511,7 +10831,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -10571,7 +10891,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
@@ -10630,26 +10950,26 @@
     <row r="18" spans="1:56" ht="24" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50" t="s">
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -10694,30 +11014,32 @@
     <row r="19" spans="1:56" ht="24" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51" t="s">
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
@@ -10817,7 +11139,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="52"/>
@@ -10876,26 +11198,26 @@
     <row r="22" spans="1:56" ht="24" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
+      <c r="C22" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
@@ -10940,30 +11262,32 @@
     <row r="23" spans="1:56" ht="24" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
+      <c r="C23" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
@@ -11063,7 +11387,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="52"/>
@@ -11122,26 +11446,26 @@
     <row r="26" spans="1:56" ht="24" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
+      <c r="C26" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
@@ -11186,30 +11510,32 @@
     <row r="27" spans="1:56" ht="24" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
+      <c r="C27" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
@@ -11306,8 +11632,12 @@
     </row>
     <row r="29" spans="1:56" ht="24" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="13">
+        <v>3</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -11365,36 +11695,42 @@
     <row r="30" spans="1:56" ht="24" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
+      <c r="C30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
@@ -11423,35 +11759,39 @@
     <row r="31" spans="1:56" ht="24" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
+      <c r="D31" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="54"/>
       <c r="AG31" s="13"/>
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
@@ -11480,36 +11820,39 @@
     <row r="32" spans="1:56" ht="24" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
+      <c r="D32" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="54"/>
       <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
@@ -11535,8 +11878,621 @@
       <c r="BC32" s="13"/>
       <c r="BD32" s="16"/>
     </row>
+    <row r="33" spans="1:56" ht="24" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="13"/>
+      <c r="AR33" s="13"/>
+      <c r="AS33" s="13"/>
+      <c r="AT33" s="13"/>
+      <c r="AU33" s="13"/>
+      <c r="AV33" s="13"/>
+      <c r="AW33" s="13"/>
+      <c r="AX33" s="13"/>
+      <c r="AY33" s="13"/>
+      <c r="AZ33" s="13"/>
+      <c r="BA33" s="13"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="13"/>
+      <c r="BD33" s="16"/>
+    </row>
+    <row r="34" spans="1:56" ht="24" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="13"/>
+      <c r="AS34" s="13"/>
+      <c r="AT34" s="13"/>
+      <c r="AU34" s="13"/>
+      <c r="AV34" s="13"/>
+      <c r="AW34" s="13"/>
+      <c r="AX34" s="13"/>
+      <c r="AY34" s="13"/>
+      <c r="AZ34" s="13"/>
+      <c r="BA34" s="13"/>
+      <c r="BB34" s="13"/>
+      <c r="BC34" s="13"/>
+      <c r="BD34" s="16"/>
+    </row>
+    <row r="35" spans="1:56" ht="24" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="13"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="13"/>
+      <c r="AY35" s="13"/>
+      <c r="AZ35" s="13"/>
+      <c r="BA35" s="13"/>
+      <c r="BB35" s="13"/>
+      <c r="BC35" s="13"/>
+      <c r="BD35" s="16"/>
+    </row>
+    <row r="36" spans="1:56" ht="24" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="13"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="13"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="13"/>
+      <c r="AW36" s="13"/>
+      <c r="AX36" s="13"/>
+      <c r="AY36" s="13"/>
+      <c r="AZ36" s="13"/>
+      <c r="BA36" s="13"/>
+      <c r="BB36" s="13"/>
+      <c r="BC36" s="13"/>
+      <c r="BD36" s="13"/>
+    </row>
+    <row r="37" spans="1:56" ht="24" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="13"/>
+      <c r="AL37" s="13"/>
+      <c r="AM37" s="13"/>
+      <c r="AN37" s="13"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="13"/>
+      <c r="AQ37" s="13"/>
+      <c r="AR37" s="13"/>
+      <c r="AS37" s="13"/>
+      <c r="AT37" s="13"/>
+      <c r="AU37" s="13"/>
+      <c r="AV37" s="13"/>
+      <c r="AW37" s="13"/>
+      <c r="AX37" s="13"/>
+      <c r="AY37" s="13"/>
+      <c r="AZ37" s="13"/>
+      <c r="BA37" s="13"/>
+      <c r="BB37" s="13"/>
+      <c r="BC37" s="13"/>
+      <c r="BD37" s="13"/>
+    </row>
+    <row r="38" spans="1:56" ht="24" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="13"/>
+      <c r="AQ38" s="13"/>
+      <c r="AR38" s="13"/>
+      <c r="AS38" s="13"/>
+      <c r="AT38" s="13"/>
+      <c r="AU38" s="13"/>
+      <c r="AV38" s="13"/>
+      <c r="AW38" s="13"/>
+      <c r="AX38" s="13"/>
+      <c r="AY38" s="13"/>
+      <c r="AZ38" s="13"/>
+      <c r="BA38" s="13"/>
+      <c r="BB38" s="13"/>
+      <c r="BC38" s="13"/>
+      <c r="BD38" s="13"/>
+    </row>
+    <row r="39" spans="1:56" ht="24" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="13"/>
+      <c r="AS39" s="13"/>
+      <c r="AT39" s="13"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="13"/>
+      <c r="AW39" s="13"/>
+      <c r="AX39" s="13"/>
+      <c r="AY39" s="13"/>
+      <c r="AZ39" s="13"/>
+      <c r="BA39" s="13"/>
+      <c r="BB39" s="13"/>
+      <c r="BC39" s="13"/>
+      <c r="BD39" s="13"/>
+    </row>
+    <row r="40" spans="1:56" ht="24" customHeight="1">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="D40" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="54"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="13"/>
+      <c r="AS40" s="13"/>
+      <c r="AT40" s="13"/>
+      <c r="AU40" s="13"/>
+      <c r="AV40" s="13"/>
+      <c r="AW40" s="13"/>
+      <c r="AX40" s="13"/>
+      <c r="AY40" s="13"/>
+      <c r="AZ40" s="13"/>
+      <c r="BA40" s="13"/>
+      <c r="BB40" s="13"/>
+      <c r="BC40" s="13"/>
+      <c r="BD40" s="13"/>
+    </row>
+    <row r="41" spans="1:56" ht="24" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="D41" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="13"/>
+      <c r="AL41" s="13"/>
+      <c r="AM41" s="13"/>
+      <c r="AN41" s="13"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="13"/>
+      <c r="AQ41" s="13"/>
+      <c r="AR41" s="13"/>
+      <c r="AS41" s="13"/>
+      <c r="AT41" s="13"/>
+      <c r="AU41" s="13"/>
+      <c r="AV41" s="13"/>
+      <c r="AW41" s="13"/>
+      <c r="AX41" s="13"/>
+      <c r="AY41" s="13"/>
+      <c r="AZ41" s="13"/>
+      <c r="BA41" s="13"/>
+      <c r="BB41" s="13"/>
+      <c r="BC41" s="13"/>
+      <c r="BD41" s="13"/>
+    </row>
+    <row r="42" spans="1:56" ht="44.25" customHeight="1">
+      <c r="C42" s="13"/>
+      <c r="D42" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="54"/>
+    </row>
+    <row r="43" spans="1:56" ht="24" customHeight="1">
+      <c r="D43" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="54"/>
+      <c r="X43" s="54"/>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="54"/>
+      <c r="AA43" s="54"/>
+      <c r="AB43" s="54"/>
+      <c r="AC43" s="54"/>
+      <c r="AD43" s="54"/>
+      <c r="AE43" s="54"/>
+      <c r="AF43" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="71">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:BD1"/>
     <mergeCell ref="A2:G2"/>
@@ -11588,6 +12544,26 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="I33:AF33"/>
+    <mergeCell ref="I30:AF30"/>
+    <mergeCell ref="I31:AF31"/>
+    <mergeCell ref="I32:AF32"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="I42:AF42"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="I34:AF34"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="I43:AF43"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="I39:AF39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:AF40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I41:AF41"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/バッチ設計書_BATCH0001.xlsx
+++ b/バッチ設計書_BATCH0001.xlsx
@@ -4,28 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="19440" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
-    <sheet name="処理概要" sheetId="2" r:id="rId2"/>
-    <sheet name="処理図" sheetId="4" r:id="rId3"/>
-    <sheet name="関連仕様" sheetId="5" r:id="rId4"/>
-    <sheet name="詳細設計" sheetId="6" r:id="rId5"/>
+    <sheet name="学習内容" sheetId="2" r:id="rId2"/>
+    <sheet name="処理概要" sheetId="7" r:id="rId3"/>
+    <sheet name="処理図" sheetId="4" r:id="rId4"/>
+    <sheet name="関連仕様" sheetId="5" r:id="rId5"/>
+    <sheet name="詳細設計" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">関連仕様!$A$1:$BD$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">詳細設計!$A$1:$BD$114</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">処理概要!$A$1:$BD$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">処理図!$A$1:$BD$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">関連仕様!$A$1:$BD$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">詳細設計!$A$1:$BD$107</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">処理概要!$A$1:$BD$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">処理図!$A$1:$BD$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$BD$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">学習内容!$A$1:$BD$36</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="150">
   <si>
     <t>社内学習</t>
     <phoneticPr fontId="1"/>
@@ -99,10 +101,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>メインクラスの実装の仕方を学習</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>shellコマンドでclass実行方法学習</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -111,19 +109,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>以下の仕様で学習内容を熟知</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>処理開始ログ出力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>処理終了ログ出力</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -136,10 +122,6 @@
   </si>
   <si>
     <t>NO</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考資料</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -228,10 +210,6 @@
   </si>
   <si>
     <t>NUMBER(1)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>※更新日時は、パラメータに渡された8桁の文字列であること</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -669,6 +647,38 @@
     <t>8.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>関連仕様</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学習内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>コミット単位について</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>メインクラスの実装の仕方</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>リトライ方式について</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell command作成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>window command作成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>※更新日時は、パラメータに渡された14桁の文字列であること</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1026,13 +1036,64 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,48 +1117,6 @@
     <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="57" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1110,23 +1129,23 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,15 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2968,8 +2978,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="9138556"/>
-          <a:ext cx="1" cy="628651"/>
+          <a:off x="2095500" y="8980713"/>
+          <a:ext cx="1" cy="612323"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3018,8 +3028,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2133600" y="11596007"/>
-          <a:ext cx="1" cy="595992"/>
+          <a:off x="2095500" y="11389178"/>
+          <a:ext cx="1" cy="585107"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3120,6 +3130,134 @@
             </a:solidFill>
             <a:latin typeface="ＭＳ 明朝" pitchFamily="49" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="곱셈 기호 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2422071"/>
+          <a:ext cx="9320893" cy="1592036"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3862"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="곱셈 기호 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16777607"/>
+          <a:ext cx="9320893" cy="1592036"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3862"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3417,7 +3555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -3429,214 +3567,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="48"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="34"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="29" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="49" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="29" t="s">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="43" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="36">
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="40">
         <v>44215</v>
       </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="43" t="s">
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="36">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="40">
         <v>44210</v>
       </c>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="38"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="42"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="32" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="26" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="32" t="s">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="39" t="s">
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="40" t="s">
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="40" t="s">
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="42"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="45"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="7"/>
@@ -3719,13 +3857,13 @@
       <c r="T5" s="4"/>
       <c r="U5" s="1"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
@@ -5554,6 +5692,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="AR3:AW3"/>
+    <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:BD1"/>
     <mergeCell ref="A2:G2"/>
@@ -5569,10 +5711,6 @@
     <mergeCell ref="P3:V3"/>
     <mergeCell ref="W2:AD2"/>
     <mergeCell ref="W3:AD3"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="AR3:AW3"/>
-    <mergeCell ref="AX3:BD3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5587,7 +5725,7 @@
   <dimension ref="A1:BD36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P12" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1"/>
@@ -5598,223 +5736,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46" t="str">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="str">
         <f>表紙!I1</f>
         <v>社内学習</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="48"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="34"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="29" t="str">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="46" t="str">
         <f>表紙!H2</f>
         <v>バッチ練習</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="49" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="29" t="str">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="46" t="str">
         <f>表紙!W2</f>
         <v>-</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="43" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="36">
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="40">
         <f>表紙!AK2</f>
         <v>44215</v>
       </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="43" t="s">
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="36">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="40">
         <f>表紙!AX2</f>
         <v>44210</v>
       </c>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="38"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="42"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="32" t="str">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="49" t="str">
         <f>表紙!H3</f>
         <v>BATCH0001</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="26" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="32" t="str">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="49" t="str">
         <f>表紙!W3</f>
         <v>-</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="26" t="s">
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="40" t="str">
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="43" t="str">
         <f>表紙!AK3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="26" t="s">
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="40" t="str">
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="43" t="str">
         <f>表紙!AX3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="42"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="45"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="12"/>
@@ -5897,13 +6035,13 @@
       <c r="T5" s="15"/>
       <c r="U5" s="14"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
@@ -5933,14 +6071,14 @@
       <c r="BD5" s="16"/>
     </row>
     <row r="6" spans="1:56" ht="24" customHeight="1">
-      <c r="A6" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="A6" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -6175,7 +6313,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -6233,6 +6371,7 @@
     <row r="11" spans="1:56" ht="24" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -6294,7 +6433,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -6414,9 +6553,9 @@
         <v>17</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="13"/>
+        <v>146</v>
+      </c>
+      <c r="E14" s="24"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -6530,12 +6669,2159 @@
     <row r="16" spans="1:56" ht="24" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="13"/>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="16"/>
+    </row>
+    <row r="17" spans="1:56" ht="24" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="13"/>
+      <c r="BB17" s="13"/>
+      <c r="BC17" s="13"/>
+      <c r="BD17" s="16"/>
+    </row>
+    <row r="18" spans="1:56" ht="24" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="16"/>
+    </row>
+    <row r="19" spans="1:56" ht="24" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="13"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="16"/>
+    </row>
+    <row r="20" spans="1:56" ht="24" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="13"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="13"/>
+      <c r="BD20" s="16"/>
+    </row>
+    <row r="21" spans="1:56" ht="24" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="16"/>
+    </row>
+    <row r="22" spans="1:56" ht="24" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="16"/>
+    </row>
+    <row r="23" spans="1:56" ht="24" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="16"/>
+    </row>
+    <row r="24" spans="1:56" ht="24" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
+      <c r="BD24" s="16"/>
+    </row>
+    <row r="25" spans="1:56" ht="24" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
+      <c r="AZ25" s="13"/>
+      <c r="BA25" s="13"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="13"/>
+      <c r="BD25" s="16"/>
+    </row>
+    <row r="26" spans="1:56" ht="24" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="13"/>
+      <c r="BA26" s="13"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="13"/>
+      <c r="BD26" s="16"/>
+    </row>
+    <row r="27" spans="1:56" ht="24" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="13"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="13"/>
+      <c r="BA27" s="13"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="13"/>
+      <c r="BD27" s="16"/>
+    </row>
+    <row r="28" spans="1:56" ht="24" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="13"/>
+      <c r="BA28" s="13"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="13"/>
+      <c r="BD28" s="16"/>
+    </row>
+    <row r="29" spans="1:56" ht="24" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="13"/>
+      <c r="BA29" s="13"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="13"/>
+      <c r="BD29" s="16"/>
+    </row>
+    <row r="30" spans="1:56" ht="24" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="13"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="13"/>
+      <c r="BD30" s="16"/>
+    </row>
+    <row r="31" spans="1:56" ht="24" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="13"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="13"/>
+      <c r="AT31" s="13"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="AX31" s="13"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="13"/>
+      <c r="BA31" s="13"/>
+      <c r="BB31" s="13"/>
+      <c r="BC31" s="13"/>
+      <c r="BD31" s="16"/>
+    </row>
+    <row r="32" spans="1:56" ht="24" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="13"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="13"/>
+      <c r="AW32" s="13"/>
+      <c r="AX32" s="13"/>
+      <c r="AY32" s="13"/>
+      <c r="AZ32" s="13"/>
+      <c r="BA32" s="13"/>
+      <c r="BB32" s="13"/>
+      <c r="BC32" s="13"/>
+      <c r="BD32" s="16"/>
+    </row>
+    <row r="33" spans="1:56" ht="24" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="13"/>
+      <c r="AR33" s="13"/>
+      <c r="AS33" s="13"/>
+      <c r="AT33" s="13"/>
+      <c r="AU33" s="13"/>
+      <c r="AV33" s="13"/>
+      <c r="AW33" s="13"/>
+      <c r="AX33" s="13"/>
+      <c r="AY33" s="13"/>
+      <c r="AZ33" s="13"/>
+      <c r="BA33" s="13"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="13"/>
+      <c r="BD33" s="16"/>
+    </row>
+    <row r="34" spans="1:56" ht="24" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="13"/>
+      <c r="AS34" s="13"/>
+      <c r="AT34" s="13"/>
+      <c r="AU34" s="13"/>
+      <c r="AV34" s="13"/>
+      <c r="AW34" s="13"/>
+      <c r="AX34" s="13"/>
+      <c r="AY34" s="13"/>
+      <c r="AZ34" s="13"/>
+      <c r="BA34" s="13"/>
+      <c r="BB34" s="13"/>
+      <c r="BC34" s="13"/>
+      <c r="BD34" s="16"/>
+    </row>
+    <row r="35" spans="1:56" ht="24" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="13"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="13"/>
+      <c r="AY35" s="13"/>
+      <c r="AZ35" s="13"/>
+      <c r="BA35" s="13"/>
+      <c r="BB35" s="13"/>
+      <c r="BC35" s="13"/>
+      <c r="BD35" s="16"/>
+    </row>
+    <row r="36" spans="1:56" ht="24" customHeight="1">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="22"/>
+      <c r="AQ36" s="22"/>
+      <c r="AR36" s="22"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="22"/>
+      <c r="AU36" s="22"/>
+      <c r="AV36" s="22"/>
+      <c r="AW36" s="22"/>
+      <c r="AX36" s="22"/>
+      <c r="AY36" s="22"/>
+      <c r="AZ36" s="22"/>
+      <c r="BA36" s="22"/>
+      <c r="BB36" s="22"/>
+      <c r="BC36" s="22"/>
+      <c r="BD36" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:BD1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="AR3:AW3"/>
+    <mergeCell ref="AX3:BD3"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="AE3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="39" width="4" style="11"/>
+    <col min="40" max="40" width="4" style="11" customWidth="1"/>
+    <col min="41" max="16384" width="4" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" ht="24" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="str">
+        <f>表紙!I1</f>
+        <v>社内学習</v>
+      </c>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="34"/>
+    </row>
+    <row r="2" spans="1:56" ht="24" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="46" t="str">
+        <f>表紙!H2</f>
+        <v>バッチ練習</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="46" t="str">
+        <f>表紙!W2</f>
+        <v>-</v>
+      </c>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="40">
+        <f>表紙!AK2</f>
+        <v>44215</v>
+      </c>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="40">
+        <f>表紙!AX2</f>
+        <v>44210</v>
+      </c>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="42"/>
+    </row>
+    <row r="3" spans="1:56" ht="24" customHeight="1">
+      <c r="A3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="49" t="str">
+        <f>表紙!H3</f>
+        <v>BATCH0001</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="49" t="str">
+        <f>表紙!W3</f>
+        <v>-</v>
+      </c>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="43" t="str">
+        <f>表紙!AK3</f>
+        <v>趙　大俊</v>
+      </c>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="43" t="str">
+        <f>表紙!AX3</f>
+        <v>趙　大俊</v>
+      </c>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="45"/>
+    </row>
+    <row r="4" spans="1:56" ht="24" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="16"/>
+    </row>
+    <row r="5" spans="1:56" ht="24" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="16"/>
+    </row>
+    <row r="6" spans="1:56" ht="24" customHeight="1">
+      <c r="A6" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="16"/>
+    </row>
+    <row r="7" spans="1:56" ht="24" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="19"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="20"/>
+    </row>
+    <row r="8" spans="1:56" ht="24" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="16"/>
+    </row>
+    <row r="9" spans="1:56" ht="24" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="16"/>
+    </row>
+    <row r="10" spans="1:56" ht="24" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="16"/>
+    </row>
+    <row r="11" spans="1:56" ht="24" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="16"/>
+    </row>
+    <row r="12" spans="1:56" ht="24" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="16"/>
+    </row>
+    <row r="13" spans="1:56" ht="24" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="16"/>
+    </row>
+    <row r="14" spans="1:56" ht="24" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="13"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="16"/>
+    </row>
+    <row r="15" spans="1:56" ht="24" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="16"/>
+    </row>
+    <row r="16" spans="1:56" ht="24" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -6650,12 +8936,11 @@
     <row r="18" spans="1:56" ht="24" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -6770,12 +9055,11 @@
     <row r="20" spans="1:56" ht="24" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -6890,12 +9174,11 @@
     <row r="22" spans="1:56" ht="24" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -7010,13 +9293,11 @@
     <row r="24" spans="1:56" ht="24" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="C24" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -7131,12 +9412,8 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -7247,13 +9524,6 @@
     <row r="28" spans="1:56" ht="24" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -7366,12 +9636,6 @@
     <row r="30" spans="1:56" ht="24" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -7801,12 +10065,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD54"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1"/>
@@ -7817,222 +10081,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46" t="str">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="str">
         <f>表紙!I1</f>
         <v>社内学習</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="48"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="34"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="29" t="str">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="46" t="str">
         <f>表紙!H2</f>
         <v>バッチ練習</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="49" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="29" t="str">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="46" t="str">
         <f>表紙!W2</f>
         <v>-</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="43" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="36">
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="40">
         <v>44214</v>
       </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="43" t="s">
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="36">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="40">
         <f>表紙!AX2</f>
         <v>44210</v>
       </c>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="38"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="42"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="32" t="str">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="49" t="str">
         <f>表紙!H3</f>
         <v>BATCH0001</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="26" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="32" t="str">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="49" t="str">
         <f>表紙!W3</f>
         <v>-</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="26" t="s">
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="40" t="str">
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="43" t="str">
         <f>表紙!AK3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="26" t="s">
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="40" t="str">
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="43" t="str">
         <f>表紙!AX3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="42"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="45"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="12"/>
@@ -8115,13 +10379,13 @@
       <c r="T5" s="15"/>
       <c r="U5" s="14"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
@@ -8151,14 +10415,14 @@
       <c r="BD5" s="16"/>
     </row>
     <row r="6" spans="1:56" ht="24" customHeight="1">
-      <c r="A6" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="A6" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -9161,7 +11425,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -9382,7 +11646,7 @@
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -9609,7 +11873,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -9849,7 +12113,7 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
@@ -9955,119 +12219,139 @@
     </row>
     <row r="39" spans="1:56" ht="24" customHeight="1">
       <c r="G39" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:56" ht="24" customHeight="1">
       <c r="N41" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:56" ht="24" customHeight="1">
       <c r="N46" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="14:27" ht="24" customHeight="1">
       <c r="N49" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="14:27" ht="24" customHeight="1">
       <c r="N50" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P50" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
-      <c r="V50" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
+        <v>66</v>
+      </c>
+      <c r="P50" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
     </row>
     <row r="51" spans="14:27" ht="24" customHeight="1">
-      <c r="P51" s="52">
+      <c r="P51" s="55">
         <v>2</v>
       </c>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52">
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55">
         <v>4</v>
       </c>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="55"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="55"/>
     </row>
     <row r="52" spans="14:27" ht="24" customHeight="1">
-      <c r="P52" s="52">
+      <c r="P52" s="55">
         <v>2</v>
       </c>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52">
+      <c r="Q52" s="55"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55">
         <v>5</v>
       </c>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="55"/>
+      <c r="Z52" s="55"/>
+      <c r="AA52" s="55"/>
     </row>
     <row r="53" spans="14:27" ht="24" customHeight="1">
-      <c r="P53" s="52">
+      <c r="P53" s="55">
         <v>2</v>
       </c>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52">
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55">
         <v>6</v>
       </c>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="55"/>
+      <c r="Y53" s="55"/>
+      <c r="Z53" s="55"/>
+      <c r="AA53" s="55"/>
     </row>
     <row r="54" spans="14:27" ht="24" customHeight="1">
-      <c r="P54" s="52">
+      <c r="P54" s="55">
         <v>3</v>
       </c>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52">
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="55">
         <v>7</v>
       </c>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="55"/>
+      <c r="Y54" s="55"/>
+      <c r="Z54" s="55"/>
+      <c r="AA54" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P53:U53"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="P54:U54"/>
+    <mergeCell ref="V54:AA54"/>
+    <mergeCell ref="P50:U50"/>
+    <mergeCell ref="V50:AA50"/>
+    <mergeCell ref="P51:U51"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="P52:U52"/>
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:BD1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AX2:BD2"/>
     <mergeCell ref="AR3:AW3"/>
     <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="W5:AC5"/>
@@ -10078,26 +12362,6 @@
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="AE3:AJ3"/>
     <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:BD1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AD2"/>
-    <mergeCell ref="AE2:AJ2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="P53:U53"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="P54:U54"/>
-    <mergeCell ref="V54:AA54"/>
-    <mergeCell ref="P50:U50"/>
-    <mergeCell ref="V50:AA50"/>
-    <mergeCell ref="P51:U51"/>
-    <mergeCell ref="V51:AA51"/>
-    <mergeCell ref="P52:U52"/>
-    <mergeCell ref="V52:AA52"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -10107,7 +12371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD43"/>
   <sheetViews>
@@ -10123,223 +12387,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46" t="str">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="str">
         <f>表紙!I1</f>
         <v>社内学習</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="48"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="34"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="29" t="str">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="46" t="str">
         <f>表紙!H2</f>
         <v>バッチ練習</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="49" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="29" t="str">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="46" t="str">
         <f>表紙!W2</f>
         <v>-</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="43" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="36">
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="40">
         <f>表紙!AK2</f>
         <v>44215</v>
       </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="43" t="s">
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="36">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="40">
         <f>表紙!AX2</f>
         <v>44210</v>
       </c>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="38"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="42"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="32" t="str">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="49" t="str">
         <f>表紙!H3</f>
         <v>BATCH0001</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="26" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="32" t="str">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="49" t="str">
         <f>表紙!W3</f>
         <v>-</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="26" t="s">
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="40" t="str">
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="43" t="str">
         <f>表紙!AK3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="26" t="s">
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="40" t="str">
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="43" t="str">
         <f>表紙!AX3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="42"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="45"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="12"/>
@@ -10422,13 +12686,13 @@
       <c r="T5" s="15"/>
       <c r="U5" s="14"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
@@ -10458,14 +12722,14 @@
       <c r="BD5" s="16"/>
     </row>
     <row r="6" spans="1:56" ht="24" customHeight="1">
-      <c r="A6" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="A6" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -10581,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -10698,19 +12962,19 @@
     <row r="10" spans="1:56" ht="24" customHeight="1" thickBot="1">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="C10" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -10760,21 +13024,21 @@
     <row r="11" spans="1:56" ht="24" customHeight="1" thickTop="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55">
+      <c r="C11" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61">
         <v>0</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="61">
         <v>0</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -10824,21 +13088,21 @@
     <row r="12" spans="1:56" ht="24" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52">
+      <c r="C12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55">
         <v>1</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="55">
         <v>1</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -10888,21 +13152,21 @@
     <row r="13" spans="1:56" ht="24" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52">
+      <c r="C13" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55">
         <v>2</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="55">
         <v>2</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -10952,21 +13216,21 @@
     <row r="14" spans="1:56" ht="24" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="52" t="s">
+      <c r="C14" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="H14" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -11077,7 +13341,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -11136,22 +13400,22 @@
     <row r="17" spans="1:56" ht="24" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
+      <c r="C17" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
@@ -11196,26 +13460,26 @@
     <row r="18" spans="1:56" ht="24" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
+      <c r="C18" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -11260,31 +13524,31 @@
     <row r="19" spans="1:56" ht="24" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
+      <c r="C19" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="25"/>
       <c r="T19" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
@@ -11384,22 +13648,22 @@
     <row r="21" spans="1:56" ht="24" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
+      <c r="C21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
@@ -11444,26 +13708,26 @@
     <row r="22" spans="1:56" ht="24" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51" t="s">
+      <c r="C22" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
@@ -11508,31 +13772,31 @@
     <row r="23" spans="1:56" ht="24" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="25"/>
       <c r="T23" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -11632,22 +13896,22 @@
     <row r="25" spans="1:56" ht="24" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
+      <c r="C25" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
@@ -11692,26 +13956,26 @@
     <row r="26" spans="1:56" ht="24" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
+      <c r="C26" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
@@ -11756,31 +14020,31 @@
     <row r="27" spans="1:56" ht="24" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
+      <c r="C27" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="25"/>
       <c r="T27" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
@@ -11882,7 +14146,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -11942,41 +14206,41 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="59"/>
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
@@ -12005,39 +14269,39 @@
     <row r="31" spans="1:56" ht="24" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="D31" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="58"/>
+      <c r="D31" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="59"/>
       <c r="AG31" s="13"/>
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
@@ -12066,39 +14330,39 @@
     <row r="32" spans="1:56" ht="24" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
-      <c r="D32" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-      <c r="AF32" s="58"/>
+      <c r="D32" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="59"/>
       <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
@@ -12128,39 +14392,39 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-      <c r="AF33" s="58"/>
+      <c r="D33" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
       <c r="AG33" s="13"/>
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
@@ -12190,39 +14454,39 @@
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
+      <c r="D34" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
@@ -12484,41 +14748,41 @@
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="58"/>
-      <c r="Z39" s="58"/>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="58"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
       <c r="AG39" s="13"/>
       <c r="AH39" s="13"/>
       <c r="AI39" s="13"/>
@@ -12547,39 +14811,39 @@
     <row r="40" spans="1:56" ht="24" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
-      <c r="D40" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="58"/>
-      <c r="Y40" s="58"/>
-      <c r="Z40" s="58"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="58"/>
-      <c r="AC40" s="58"/>
-      <c r="AD40" s="58"/>
-      <c r="AE40" s="58"/>
-      <c r="AF40" s="58"/>
+      <c r="D40" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
       <c r="AG40" s="13"/>
       <c r="AH40" s="13"/>
       <c r="AI40" s="13"/>
@@ -12608,39 +14872,39 @@
     <row r="41" spans="1:56" ht="24" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
-      <c r="D41" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="58"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="58"/>
-      <c r="Y41" s="58"/>
-      <c r="Z41" s="58"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="58"/>
-      <c r="AC41" s="58"/>
-      <c r="AD41" s="58"/>
-      <c r="AE41" s="58"/>
-      <c r="AF41" s="58"/>
+      <c r="D41" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
       <c r="AG41" s="13"/>
       <c r="AH41" s="13"/>
       <c r="AI41" s="13"/>
@@ -12668,77 +14932,136 @@
     </row>
     <row r="42" spans="1:56" ht="44.25" customHeight="1">
       <c r="C42" s="13"/>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="58"/>
-      <c r="W42" s="58"/>
-      <c r="X42" s="58"/>
-      <c r="Y42" s="58"/>
-      <c r="Z42" s="58"/>
-      <c r="AA42" s="58"/>
-      <c r="AB42" s="58"/>
-      <c r="AC42" s="58"/>
-      <c r="AD42" s="58"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="58"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
     </row>
     <row r="43" spans="1:56" ht="24" customHeight="1">
-      <c r="D43" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="58"/>
-      <c r="AA43" s="58"/>
-      <c r="AB43" s="58"/>
-      <c r="AC43" s="58"/>
-      <c r="AD43" s="58"/>
-      <c r="AE43" s="58"/>
-      <c r="AF43" s="58"/>
+      <c r="D43" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="59"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="59"/>
+      <c r="AF43" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:BD1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="AR3:AW3"/>
+    <mergeCell ref="AX3:BD3"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="AE3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="C21:P21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C25:P25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="I33:AF33"/>
+    <mergeCell ref="I30:AF30"/>
+    <mergeCell ref="I31:AF31"/>
+    <mergeCell ref="I32:AF32"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
     <mergeCell ref="D42:H42"/>
     <mergeCell ref="I42:AF42"/>
     <mergeCell ref="D34:H34"/>
@@ -12751,65 +15074,6 @@
     <mergeCell ref="I40:AF40"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="I41:AF41"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="I33:AF33"/>
-    <mergeCell ref="I30:AF30"/>
-    <mergeCell ref="I31:AF31"/>
-    <mergeCell ref="I32:AF32"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C25:P25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="C21:P21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="AR3:AW3"/>
-    <mergeCell ref="AX3:BD3"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="P3:V3"/>
-    <mergeCell ref="W3:AD3"/>
-    <mergeCell ref="AE3:AJ3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:BD1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AD2"/>
-    <mergeCell ref="AE2:AJ2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AX2:BD2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12818,12 +15082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD112"/>
+  <dimension ref="A1:BD105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1"/>
@@ -12834,223 +15098,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46" t="str">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="str">
         <f>表紙!I1</f>
         <v>社内学習</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="48"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="34"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="29" t="str">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="46" t="str">
         <f>表紙!H2</f>
         <v>バッチ練習</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="49" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="29" t="str">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="46" t="str">
         <f>表紙!W2</f>
         <v>-</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="43" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="36">
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="40">
         <f>表紙!AK2</f>
         <v>44215</v>
       </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="43" t="s">
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="36">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="40">
         <f>表紙!AX2</f>
         <v>44210</v>
       </c>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="38"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="42"/>
     </row>
     <row r="3" spans="1:56" ht="24" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="32" t="str">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="49" t="str">
         <f>表紙!H3</f>
         <v>BATCH0001</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="26" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="32" t="str">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="49" t="str">
         <f>表紙!W3</f>
         <v>-</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="26" t="s">
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="40" t="str">
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="43" t="str">
         <f>表紙!AK3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="26" t="s">
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="40" t="str">
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="43" t="str">
         <f>表紙!AX3</f>
         <v>趙　大俊</v>
       </c>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="42"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="45"/>
     </row>
     <row r="4" spans="1:56" ht="24" customHeight="1">
       <c r="A4" s="12"/>
@@ -13133,13 +15397,13 @@
       <c r="T5" s="15"/>
       <c r="U5" s="14"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
@@ -13169,14 +15433,14 @@
       <c r="BD5" s="16"/>
     </row>
     <row r="6" spans="1:56" ht="24" customHeight="1">
-      <c r="A6" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="A6" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -13289,7 +15553,7 @@
     <row r="8" spans="1:56" ht="24" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -13407,7 +15671,7 @@
     <row r="10" spans="1:56" ht="24" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -13525,11 +15789,11 @@
     <row r="12" spans="1:56" ht="24" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="63" t="s">
-        <v>93</v>
+      <c r="C12" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -13588,8 +15852,8 @@
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="63" t="s">
-        <v>135</v>
+      <c r="D13" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -13648,49 +15912,49 @@
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="61"/>
-      <c r="AL14" s="62"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="65"/>
       <c r="AM14" s="13"/>
       <c r="AN14" s="13"/>
       <c r="AO14" s="13"/>
@@ -13714,49 +15978,49 @@
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="52">
+      <c r="D15" s="26"/>
+      <c r="E15" s="55">
         <v>0</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="59"/>
       <c r="AM15" s="13"/>
       <c r="AN15" s="13"/>
       <c r="AO15" s="13"/>
@@ -13780,49 +16044,49 @@
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="52">
+      <c r="D16" s="26"/>
+      <c r="E16" s="55">
         <v>1</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="59"/>
       <c r="AM16" s="13"/>
       <c r="AN16" s="13"/>
       <c r="AO16" s="13"/>
@@ -13846,49 +16110,49 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="52">
+      <c r="D17" s="26"/>
+      <c r="E17" s="55">
         <v>2</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
       <c r="AM17" s="13"/>
       <c r="AN17" s="13"/>
       <c r="AO17" s="13"/>
@@ -13912,49 +16176,49 @@
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="52">
+      <c r="D18" s="26"/>
+      <c r="E18" s="55">
         <v>3</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
       <c r="AM18" s="13"/>
       <c r="AN18" s="13"/>
       <c r="AO18" s="13"/>
@@ -13978,49 +16242,49 @@
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="59"/>
       <c r="AM19" s="13"/>
       <c r="AN19" s="13"/>
       <c r="AO19" s="13"/>
@@ -14044,7 +16308,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="63"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -14102,7 +16366,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="63"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -14159,11 +16423,11 @@
     <row r="22" spans="1:56" ht="24" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>118</v>
+      <c r="C22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -14222,7 +16486,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="63"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -14280,7 +16544,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="63"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -14337,11 +16601,11 @@
     <row r="25" spans="1:56" ht="24" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>136</v>
+      <c r="C25" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -14399,8 +16663,8 @@
     <row r="26" spans="1:56" ht="24" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -14458,7 +16722,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="63"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -14515,11 +16779,11 @@
     <row r="28" spans="1:56" ht="24" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>85</v>
+      <c r="C28" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -14578,8 +16842,8 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="63" t="s">
-        <v>133</v>
+      <c r="D29" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -14638,8 +16902,8 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="63" t="s">
-        <v>108</v>
+      <c r="D30" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -14698,8 +16962,8 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="63" t="s">
-        <v>143</v>
+      <c r="D31" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -14758,7 +17022,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="63"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -14873,11 +17137,11 @@
     <row r="34" spans="1:56" ht="24" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="63" t="s">
-        <v>121</v>
+      <c r="C34" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -14936,8 +17200,8 @@
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="63" t="s">
-        <v>109</v>
+      <c r="D35" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -15112,9 +17376,13 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="26" t="s">
+        <v>131</v>
+      </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="F38" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
@@ -15170,12 +17438,10 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="63" t="s">
-        <v>137</v>
-      </c>
+      <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
-        <v>101</v>
+      <c r="F39" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -15234,8 +17500,8 @@
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="63" t="s">
-        <v>110</v>
+      <c r="F40" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -15294,9 +17560,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="63" t="s">
-        <v>111</v>
-      </c>
+      <c r="F41" s="26"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -15354,7 +17618,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="63"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -15410,11 +17674,13 @@
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="E43" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
@@ -15468,12 +17734,9 @@
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
-      <c r="E44" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="H44" s="13" t="s">
-        <v>131</v>
+      <c r="E44" s="13"/>
+      <c r="H44" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -15529,23 +17792,11 @@
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="E45" s="13"/>
-      <c r="H45" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="W45" s="13"/>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
@@ -15587,10 +17838,21 @@
       <c r="C46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64" t="s">
-        <v>112</v>
-      </c>
+      <c r="J46" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
       <c r="W46" s="13"/>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -15632,10 +17894,10 @@
       <c r="C47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="J47" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="K47" s="13"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26" t="s">
+        <v>116</v>
+      </c>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
@@ -15687,10 +17949,10 @@
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63" t="s">
-        <v>122</v>
+      <c r="F48" s="26"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
@@ -15743,11 +18005,11 @@
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="63"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="63" t="s">
-        <v>113</v>
-      </c>
+      <c r="F49" s="13"/>
+      <c r="J49" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
@@ -15800,10 +18062,9 @@
       <c r="C50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="J50" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50" s="13"/>
+      <c r="K50" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
@@ -15856,9 +18117,10 @@
       <c r="C51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="K51" s="63" t="s">
-        <v>114</v>
-      </c>
+      <c r="J51" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
@@ -15911,10 +18173,10 @@
       <c r="C52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="J52" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="K52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
@@ -15967,10 +18229,11 @@
       <c r="C53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="63" t="s">
-        <v>115</v>
-      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
@@ -16024,10 +18287,10 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="K54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="26" t="s">
+        <v>110</v>
+      </c>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
@@ -16080,11 +18343,11 @@
       <c r="C55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="I55" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="J55" s="13"/>
-      <c r="K55" s="63" t="s">
-        <v>116</v>
-      </c>
+      <c r="K55" s="26"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
@@ -16137,11 +18400,11 @@
       <c r="C56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="I56" s="64" t="s">
-        <v>123</v>
+      <c r="I56" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="J56" s="13"/>
-      <c r="K56" s="63"/>
+      <c r="K56" s="26"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
@@ -16194,11 +18457,9 @@
       <c r="C57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
-      <c r="I57" s="63" t="s">
-        <v>124</v>
-      </c>
+      <c r="I57" s="26"/>
       <c r="J57" s="13"/>
-      <c r="K57" s="63"/>
+      <c r="K57" s="26"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
@@ -16251,9 +18512,9 @@
       <c r="C58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
-      <c r="I58" s="63"/>
+      <c r="I58" s="26"/>
       <c r="J58" s="13"/>
-      <c r="K58" s="63"/>
+      <c r="K58" s="26"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
@@ -16304,11 +18565,16 @@
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="E59" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="F59" s="13"/>
-      <c r="I59" s="63"/>
+      <c r="H59" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I59" s="26"/>
       <c r="J59" s="13"/>
-      <c r="K59" s="63"/>
+      <c r="K59" s="26"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
@@ -16359,16 +18625,11 @@
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
-      <c r="E60" s="63" t="s">
-        <v>139</v>
-      </c>
+      <c r="E60" s="13"/>
       <c r="F60" s="13"/>
-      <c r="H60" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I60" s="63"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="63"/>
+      <c r="H60" s="26" t="s">
+        <v>123</v>
+      </c>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
@@ -16421,8 +18682,8 @@
       <c r="C61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
-      <c r="H61" s="63" t="s">
-        <v>129</v>
+      <c r="H61" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
@@ -16476,8 +18737,8 @@
       <c r="C62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
-      <c r="H62" s="63" t="s">
-        <v>130</v>
+      <c r="H62" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
@@ -16531,9 +18792,7 @@
       <c r="C63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
-      <c r="H63" s="63" t="s">
-        <v>144</v>
-      </c>
+      <c r="H63" s="26"/>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
@@ -16584,9 +18843,14 @@
       <c r="A64" s="12"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
-      <c r="H64" s="63"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
@@ -16637,9 +18901,13 @@
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="D65" s="26" t="s">
+        <v>134</v>
+      </c>
       <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
+      <c r="F65" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
@@ -16695,12 +18963,10 @@
       <c r="A66" s="12"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
-      <c r="D66" s="63" t="s">
-        <v>140</v>
-      </c>
+      <c r="D66" s="13"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="13" t="s">
-        <v>103</v>
+      <c r="F66" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -16759,9 +19025,7 @@
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="63" t="s">
-        <v>117</v>
-      </c>
+      <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
@@ -16817,7 +19081,9 @@
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
+      <c r="D68" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
@@ -16875,9 +19141,7 @@
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
-      <c r="D69" s="63" t="s">
-        <v>120</v>
-      </c>
+      <c r="D69" s="26"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
@@ -16935,7 +19199,7 @@
       <c r="A70" s="12"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
-      <c r="D70" s="63"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
@@ -16993,7 +19257,7 @@
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
-      <c r="D71" s="63"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
@@ -17051,7 +19315,7 @@
       <c r="A72" s="12"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
-      <c r="D72" s="63"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
@@ -17109,7 +19373,7 @@
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
-      <c r="D73" s="63"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
@@ -17166,8 +19430,12 @@
     <row r="74" spans="1:56" ht="24" customHeight="1">
       <c r="A74" s="12"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="63"/>
+      <c r="C74" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
@@ -17224,12 +19492,8 @@
     <row r="75" spans="1:56" ht="24" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>102</v>
-      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
@@ -17287,7 +19551,7 @@
       <c r="A76" s="12"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="63"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
@@ -17344,8 +19608,12 @@
     <row r="77" spans="1:56" ht="24" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="63"/>
+      <c r="C77" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>139</v>
+      </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
@@ -17402,11 +19670,9 @@
     <row r="78" spans="1:56" ht="24" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="13"/>
-      <c r="C78" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="D78" s="63" t="s">
-        <v>145</v>
+      <c r="C78" s="13"/>
+      <c r="D78" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -17464,10 +19730,6 @@
     <row r="79" spans="1:56" ht="24" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="63" t="s">
-        <v>146</v>
-      </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
@@ -17580,6 +19842,12 @@
     <row r="81" spans="1:56" ht="24" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="13"/>
+      <c r="C81" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>120</v>
+      </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
@@ -17636,12 +19904,8 @@
     <row r="82" spans="1:56" ht="24" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="D82" s="65" t="s">
-        <v>126</v>
-      </c>
+      <c r="C82" s="26"/>
+      <c r="D82" s="28"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
@@ -17698,8 +19962,8 @@
     <row r="83" spans="1:56" ht="24" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="65"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="28"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
@@ -17756,8 +20020,8 @@
     <row r="84" spans="1:56" ht="24" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="65"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="28"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
@@ -17814,8 +20078,8 @@
     <row r="85" spans="1:56" ht="24" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="13"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="65"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="28"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
@@ -17872,8 +20136,8 @@
     <row r="86" spans="1:56" ht="24" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="13"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="65"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="28"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
@@ -17930,8 +20194,8 @@
     <row r="87" spans="1:56" ht="24" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="13"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="65"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="28"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
@@ -17988,8 +20252,8 @@
     <row r="88" spans="1:56" ht="24" customHeight="1">
       <c r="A88" s="12"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="65"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="28"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
@@ -18046,8 +20310,8 @@
     <row r="89" spans="1:56" ht="24" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="13"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="65"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="28"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
@@ -18104,8 +20368,8 @@
     <row r="90" spans="1:56" ht="24" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" s="13"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="65"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="28"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
@@ -18162,8 +20426,8 @@
     <row r="91" spans="1:56" ht="24" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="13"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="65"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="28"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
@@ -18220,8 +20484,8 @@
     <row r="92" spans="1:56" ht="24" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="13"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="65"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="28"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
@@ -18278,8 +20542,8 @@
     <row r="93" spans="1:56" ht="24" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="65"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="28"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
@@ -18336,8 +20600,8 @@
     <row r="94" spans="1:56" ht="24" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="65"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="28"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
@@ -18394,8 +20658,8 @@
     <row r="95" spans="1:56" ht="24" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="13"/>
-      <c r="C95" s="63"/>
-      <c r="D95" s="65"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="28"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
@@ -18452,8 +20716,8 @@
     <row r="96" spans="1:56" ht="24" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="63"/>
-      <c r="D96" s="65"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="28"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -18510,8 +20774,8 @@
     <row r="97" spans="1:56" ht="24" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="65"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="28"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
@@ -18568,8 +20832,8 @@
     <row r="98" spans="1:56" ht="24" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="13"/>
-      <c r="C98" s="63"/>
-      <c r="D98" s="65"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="28"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
@@ -18626,8 +20890,8 @@
     <row r="99" spans="1:56" ht="24" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="13"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="65"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="28"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
@@ -18684,8 +20948,8 @@
     <row r="100" spans="1:56" ht="24" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" s="13"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="65"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="28"/>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
@@ -18742,8 +21006,8 @@
     <row r="101" spans="1:56" ht="24" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="13"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="65"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="28"/>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
@@ -18800,8 +21064,8 @@
     <row r="102" spans="1:56" ht="24" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="13"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="65"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="28"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
@@ -18858,8 +21122,8 @@
     <row r="103" spans="1:56" ht="24" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="13"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="65"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
@@ -18914,10 +21178,10 @@
       <c r="BD103" s="16"/>
     </row>
     <row r="104" spans="1:56" ht="24" customHeight="1">
-      <c r="A104" s="12"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="13"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="65"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
@@ -18969,13 +21233,13 @@
       <c r="BA104" s="13"/>
       <c r="BB104" s="13"/>
       <c r="BC104" s="13"/>
-      <c r="BD104" s="16"/>
+      <c r="BD104" s="13"/>
     </row>
     <row r="105" spans="1:56" ht="24" customHeight="1">
-      <c r="A105" s="12"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="13"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="65"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
@@ -19027,440 +21291,20 @@
       <c r="BA105" s="13"/>
       <c r="BB105" s="13"/>
       <c r="BC105" s="13"/>
-      <c r="BD105" s="16"/>
-    </row>
-    <row r="106" spans="1:56" ht="24" customHeight="1">
-      <c r="A106" s="12"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="13"/>
-      <c r="S106" s="13"/>
-      <c r="T106" s="13"/>
-      <c r="U106" s="13"/>
-      <c r="V106" s="13"/>
-      <c r="W106" s="13"/>
-      <c r="X106" s="13"/>
-      <c r="Y106" s="13"/>
-      <c r="Z106" s="13"/>
-      <c r="AA106" s="13"/>
-      <c r="AB106" s="13"/>
-      <c r="AC106" s="13"/>
-      <c r="AD106" s="13"/>
-      <c r="AE106" s="13"/>
-      <c r="AF106" s="13"/>
-      <c r="AG106" s="13"/>
-      <c r="AH106" s="13"/>
-      <c r="AI106" s="13"/>
-      <c r="AJ106" s="13"/>
-      <c r="AK106" s="13"/>
-      <c r="AL106" s="13"/>
-      <c r="AM106" s="13"/>
-      <c r="AN106" s="13"/>
-      <c r="AO106" s="13"/>
-      <c r="AP106" s="13"/>
-      <c r="AQ106" s="13"/>
-      <c r="AR106" s="13"/>
-      <c r="AS106" s="13"/>
-      <c r="AT106" s="13"/>
-      <c r="AU106" s="13"/>
-      <c r="AV106" s="13"/>
-      <c r="AW106" s="13"/>
-      <c r="AX106" s="13"/>
-      <c r="AY106" s="13"/>
-      <c r="AZ106" s="13"/>
-      <c r="BA106" s="13"/>
-      <c r="BB106" s="13"/>
-      <c r="BC106" s="13"/>
-      <c r="BD106" s="16"/>
-    </row>
-    <row r="107" spans="1:56" ht="24" customHeight="1">
-      <c r="A107" s="12"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="13"/>
-      <c r="AO107" s="13"/>
-      <c r="AP107" s="13"/>
-      <c r="AQ107" s="13"/>
-      <c r="AR107" s="13"/>
-      <c r="AS107" s="13"/>
-      <c r="AT107" s="13"/>
-      <c r="AU107" s="13"/>
-      <c r="AV107" s="13"/>
-      <c r="AW107" s="13"/>
-      <c r="AX107" s="13"/>
-      <c r="AY107" s="13"/>
-      <c r="AZ107" s="13"/>
-      <c r="BA107" s="13"/>
-      <c r="BB107" s="13"/>
-      <c r="BC107" s="13"/>
-      <c r="BD107" s="16"/>
-    </row>
-    <row r="108" spans="1:56" ht="24" customHeight="1">
-      <c r="A108" s="12"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="13"/>
-      <c r="R108" s="13"/>
-      <c r="S108" s="13"/>
-      <c r="T108" s="13"/>
-      <c r="U108" s="13"/>
-      <c r="V108" s="13"/>
-      <c r="W108" s="13"/>
-      <c r="X108" s="13"/>
-      <c r="Y108" s="13"/>
-      <c r="Z108" s="13"/>
-      <c r="AA108" s="13"/>
-      <c r="AB108" s="13"/>
-      <c r="AC108" s="13"/>
-      <c r="AD108" s="13"/>
-      <c r="AE108" s="13"/>
-      <c r="AF108" s="13"/>
-      <c r="AG108" s="13"/>
-      <c r="AH108" s="13"/>
-      <c r="AI108" s="13"/>
-      <c r="AJ108" s="13"/>
-      <c r="AK108" s="13"/>
-      <c r="AL108" s="13"/>
-      <c r="AM108" s="13"/>
-      <c r="AN108" s="13"/>
-      <c r="AO108" s="13"/>
-      <c r="AP108" s="13"/>
-      <c r="AQ108" s="13"/>
-      <c r="AR108" s="13"/>
-      <c r="AS108" s="13"/>
-      <c r="AT108" s="13"/>
-      <c r="AU108" s="13"/>
-      <c r="AV108" s="13"/>
-      <c r="AW108" s="13"/>
-      <c r="AX108" s="13"/>
-      <c r="AY108" s="13"/>
-      <c r="AZ108" s="13"/>
-      <c r="BA108" s="13"/>
-      <c r="BB108" s="13"/>
-      <c r="BC108" s="13"/>
-      <c r="BD108" s="16"/>
-    </row>
-    <row r="109" spans="1:56" ht="24" customHeight="1">
-      <c r="A109" s="12"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="63"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="13"/>
-      <c r="O109" s="13"/>
-      <c r="P109" s="13"/>
-      <c r="Q109" s="13"/>
-      <c r="R109" s="13"/>
-      <c r="S109" s="13"/>
-      <c r="T109" s="13"/>
-      <c r="U109" s="13"/>
-      <c r="V109" s="13"/>
-      <c r="W109" s="13"/>
-      <c r="X109" s="13"/>
-      <c r="Y109" s="13"/>
-      <c r="Z109" s="13"/>
-      <c r="AA109" s="13"/>
-      <c r="AB109" s="13"/>
-      <c r="AC109" s="13"/>
-      <c r="AD109" s="13"/>
-      <c r="AE109" s="13"/>
-      <c r="AF109" s="13"/>
-      <c r="AG109" s="13"/>
-      <c r="AH109" s="13"/>
-      <c r="AI109" s="13"/>
-      <c r="AJ109" s="13"/>
-      <c r="AK109" s="13"/>
-      <c r="AL109" s="13"/>
-      <c r="AM109" s="13"/>
-      <c r="AN109" s="13"/>
-      <c r="AO109" s="13"/>
-      <c r="AP109" s="13"/>
-      <c r="AQ109" s="13"/>
-      <c r="AR109" s="13"/>
-      <c r="AS109" s="13"/>
-      <c r="AT109" s="13"/>
-      <c r="AU109" s="13"/>
-      <c r="AV109" s="13"/>
-      <c r="AW109" s="13"/>
-      <c r="AX109" s="13"/>
-      <c r="AY109" s="13"/>
-      <c r="AZ109" s="13"/>
-      <c r="BA109" s="13"/>
-      <c r="BB109" s="13"/>
-      <c r="BC109" s="13"/>
-      <c r="BD109" s="16"/>
-    </row>
-    <row r="110" spans="1:56" ht="24" customHeight="1">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="13"/>
-      <c r="S110" s="13"/>
-      <c r="T110" s="13"/>
-      <c r="U110" s="13"/>
-      <c r="V110" s="13"/>
-      <c r="W110" s="13"/>
-      <c r="X110" s="13"/>
-      <c r="Y110" s="13"/>
-      <c r="Z110" s="13"/>
-      <c r="AA110" s="13"/>
-      <c r="AB110" s="13"/>
-      <c r="AC110" s="13"/>
-      <c r="AD110" s="13"/>
-      <c r="AE110" s="13"/>
-      <c r="AF110" s="13"/>
-      <c r="AG110" s="13"/>
-      <c r="AH110" s="13"/>
-      <c r="AI110" s="13"/>
-      <c r="AJ110" s="13"/>
-      <c r="AK110" s="13"/>
-      <c r="AL110" s="13"/>
-      <c r="AM110" s="13"/>
-      <c r="AN110" s="13"/>
-      <c r="AO110" s="13"/>
-      <c r="AP110" s="13"/>
-      <c r="AQ110" s="13"/>
-      <c r="AR110" s="13"/>
-      <c r="AS110" s="13"/>
-      <c r="AT110" s="13"/>
-      <c r="AU110" s="13"/>
-      <c r="AV110" s="13"/>
-      <c r="AW110" s="13"/>
-      <c r="AX110" s="13"/>
-      <c r="AY110" s="13"/>
-      <c r="AZ110" s="13"/>
-      <c r="BA110" s="13"/>
-      <c r="BB110" s="13"/>
-      <c r="BC110" s="13"/>
-      <c r="BD110" s="16"/>
-    </row>
-    <row r="111" spans="1:56" ht="24" customHeight="1">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="13"/>
-      <c r="P111" s="13"/>
-      <c r="Q111" s="13"/>
-      <c r="R111" s="13"/>
-      <c r="S111" s="13"/>
-      <c r="T111" s="13"/>
-      <c r="U111" s="13"/>
-      <c r="V111" s="13"/>
-      <c r="W111" s="13"/>
-      <c r="X111" s="13"/>
-      <c r="Y111" s="13"/>
-      <c r="Z111" s="13"/>
-      <c r="AA111" s="13"/>
-      <c r="AB111" s="13"/>
-      <c r="AC111" s="13"/>
-      <c r="AD111" s="13"/>
-      <c r="AE111" s="13"/>
-      <c r="AF111" s="13"/>
-      <c r="AG111" s="13"/>
-      <c r="AH111" s="13"/>
-      <c r="AI111" s="13"/>
-      <c r="AJ111" s="13"/>
-      <c r="AK111" s="13"/>
-      <c r="AL111" s="13"/>
-      <c r="AM111" s="13"/>
-      <c r="AN111" s="13"/>
-      <c r="AO111" s="13"/>
-      <c r="AP111" s="13"/>
-      <c r="AQ111" s="13"/>
-      <c r="AR111" s="13"/>
-      <c r="AS111" s="13"/>
-      <c r="AT111" s="13"/>
-      <c r="AU111" s="13"/>
-      <c r="AV111" s="13"/>
-      <c r="AW111" s="13"/>
-      <c r="AX111" s="13"/>
-      <c r="AY111" s="13"/>
-      <c r="AZ111" s="13"/>
-      <c r="BA111" s="13"/>
-      <c r="BB111" s="13"/>
-      <c r="BC111" s="13"/>
-      <c r="BD111" s="13"/>
-    </row>
-    <row r="112" spans="1:56" ht="24" customHeight="1">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="13"/>
-      <c r="P112" s="13"/>
-      <c r="Q112" s="13"/>
-      <c r="R112" s="13"/>
-      <c r="S112" s="13"/>
-      <c r="T112" s="13"/>
-      <c r="U112" s="13"/>
-      <c r="V112" s="13"/>
-      <c r="W112" s="13"/>
-      <c r="X112" s="13"/>
-      <c r="Y112" s="13"/>
-      <c r="Z112" s="13"/>
-      <c r="AA112" s="13"/>
-      <c r="AB112" s="13"/>
-      <c r="AC112" s="13"/>
-      <c r="AD112" s="13"/>
-      <c r="AE112" s="13"/>
-      <c r="AF112" s="13"/>
-      <c r="AG112" s="13"/>
-      <c r="AH112" s="13"/>
-      <c r="AI112" s="13"/>
-      <c r="AJ112" s="13"/>
-      <c r="AK112" s="13"/>
-      <c r="AL112" s="13"/>
-      <c r="AM112" s="13"/>
-      <c r="AN112" s="13"/>
-      <c r="AO112" s="13"/>
-      <c r="AP112" s="13"/>
-      <c r="AQ112" s="13"/>
-      <c r="AR112" s="13"/>
-      <c r="AS112" s="13"/>
-      <c r="AT112" s="13"/>
-      <c r="AU112" s="13"/>
-      <c r="AV112" s="13"/>
-      <c r="AW112" s="13"/>
-      <c r="AX112" s="13"/>
-      <c r="AY112" s="13"/>
-      <c r="AZ112" s="13"/>
-      <c r="BA112" s="13"/>
-      <c r="BB112" s="13"/>
-      <c r="BC112" s="13"/>
-      <c r="BD112" s="13"/>
+      <c r="BD105" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="S14:AL14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S15:AL15"/>
-    <mergeCell ref="S16:AL16"/>
-    <mergeCell ref="S17:AL17"/>
-    <mergeCell ref="S18:AL18"/>
-    <mergeCell ref="S19:AL19"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:BD1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AX2:BD2"/>
     <mergeCell ref="AR3:AW3"/>
     <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="W5:AC5"/>
@@ -19471,16 +21315,30 @@
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="AE3:AJ3"/>
     <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:BD1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AD2"/>
-    <mergeCell ref="AE2:AJ2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="S18:AL18"/>
+    <mergeCell ref="S19:AL19"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="S14:AL14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S15:AL15"/>
+    <mergeCell ref="S16:AL16"/>
+    <mergeCell ref="S17:AL17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:N15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
